--- a/InputFiles/Example1.xlsx
+++ b/InputFiles/Example1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DAA595-1D11-4AB3-83F1-458E3EA525DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0754B11-2CB6-4E1D-8898-BC21F194F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{138F3D20-9DB7-4AF8-94FC-BC1433BA6811}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{138F3D20-9DB7-4AF8-94FC-BC1433BA6811}"/>
   </bookViews>
   <sheets>
     <sheet name="framegen" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,10 +1350,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1361,10 +1361,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">

--- a/InputFiles/Example1.xlsx
+++ b/InputFiles/Example1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0754B11-2CB6-4E1D-8898-BC21F194F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF01E433-D10E-4E2E-8FEB-763FA47B3477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{138F3D20-9DB7-4AF8-94FC-BC1433BA6811}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,10 +1361,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">

--- a/InputFiles/Example1.xlsx
+++ b/InputFiles/Example1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF01E433-D10E-4E2E-8FEB-763FA47B3477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482E1536-9AF7-41C5-B958-CECE0E89E146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{138F3D20-9DB7-4AF8-94FC-BC1433BA6811}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" activeTab="2" xr2:uid="{138F3D20-9DB7-4AF8-94FC-BC1433BA6811}"/>
   </bookViews>
   <sheets>
-    <sheet name="framegen" sheetId="1" r:id="rId1"/>
+    <sheet name="framegen" sheetId="6" r:id="rId1"/>
     <sheet name="Seismic_Defination" sheetId="2" r:id="rId2"/>
     <sheet name="load_combinations" sheetId="3" r:id="rId3"/>
+    <sheet name="Manual Calculation" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,54 +28,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Index</t>
   </si>
   <si>
+    <t xml:space="preserve">Zone </t>
+  </si>
+  <si>
+    <t>Importance Factor (I)</t>
+  </si>
+  <si>
+    <t>Response Reduction Factor (R)</t>
+  </si>
+  <si>
+    <t>Design Acceleration Coefficient (Sag)</t>
+  </si>
+  <si>
+    <t>Damping(%)</t>
+  </si>
+  <si>
+    <t>Rock and Site Factor (S)</t>
+  </si>
+  <si>
+    <t>Time Period</t>
+  </si>
+  <si>
+    <t>Dead_Load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live_Load </t>
+  </si>
+  <si>
+    <t>Earthquake_Load (x- direction)</t>
+  </si>
+  <si>
+    <t>Earthquake_Load (- x- direction)</t>
+  </si>
+  <si>
+    <t>Earthquake_Load (z- direction)</t>
+  </si>
+  <si>
+    <t>Earthquake_Load (-z- direction)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col </t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>self-Weight</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Beamx</t>
+  </si>
+  <si>
+    <t>Beamz</t>
+  </si>
+  <si>
+    <t>Member Load</t>
+  </si>
+  <si>
+    <t>Total MEM Load</t>
+  </si>
+  <si>
+    <t>Floors</t>
+  </si>
+  <si>
+    <t>Floor Loads</t>
+  </si>
+  <si>
+    <t>Self-weight</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Other Loads</t>
+  </si>
+  <si>
+    <t>Self Weight LUMP</t>
+  </si>
+  <si>
     <t>No. of Bay</t>
   </si>
   <si>
     <t>Total Distance (m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone </t>
-  </si>
-  <si>
-    <t>Importance Factor (I)</t>
-  </si>
-  <si>
-    <t>Response Reduction Factor (R)</t>
-  </si>
-  <si>
-    <t>Design Acceleration Coefficient (Sag)</t>
-  </si>
-  <si>
-    <t>Damping(%)</t>
-  </si>
-  <si>
-    <t>Rock and Site Factor (S)</t>
-  </si>
-  <si>
-    <t>Time Period</t>
-  </si>
-  <si>
-    <t>Dead_Load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Live_Load </t>
-  </si>
-  <si>
-    <t>Earthquake_Load (x- direction)</t>
-  </si>
-  <si>
-    <t>Earthquake_Load (- x- direction)</t>
-  </si>
-  <si>
-    <t>Earthquake_Load (z- direction)</t>
-  </si>
-  <si>
-    <t>Earthquake_Load (-z- direction)</t>
   </si>
 </sst>
 </file>
@@ -184,12 +251,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -202,8 +284,58 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -294,123 +426,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -425,7 +456,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,6 +503,185 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -806,185 +1055,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -999,27 +1069,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{127761E6-382B-4C90-8817-B335114B1619}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9F9A67A6-2F68-4654-BD2F-84A85E3D849E}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{134A2CFE-ED2A-4B7F-9DDB-DF6A395F5AE2}" name="Index" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{A4FF5845-566C-4721-B6A7-F679F9EEAE91}" name="No. of Bay" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B8AF24BD-5908-4CAB-91D8-3A812B4E8CB0}" name="Total Distance (m)" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{DFE8C31F-7BC7-44CD-B3E8-3BAF65E36A8A}" name="Index" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{BEF29E33-CB76-4391-8549-6039CF6B9313}" name="No. of Bay" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{FF82F406-494B-400C-A2C3-5D23F633A556}" name="Total Distance (m)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{06488673-014C-40AA-982B-FD4F0015DAB8}" name="Table7" displayName="Table7" ref="A1:H2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{06488673-014C-40AA-982B-FD4F0015DAB8}" name="Table7" displayName="Table7" ref="A1:H2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4F90AA72-4D57-4598-91A6-CEDBD812E062}" name="Index" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{0FD36982-8D2D-4A6C-A265-44E4DEAF4C39}" name="Zone " dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{C8B7F081-F00B-44E8-A58A-88C8517B5B9B}" name="Importance Factor (I)" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{844F09EC-E667-4868-A2B3-5A7782E54F58}" name="Response Reduction Factor (R)" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C621DA8D-3D31-4382-9CD1-F85D48D43619}" name="Design Acceleration Coefficient (Sag)" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6D443A51-58F1-43BA-ABEC-2952D520D212}" name="Damping(%)" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{1DD6E231-EC2D-4F32-A266-419294054391}" name="Rock and Site Factor (S)" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{E689A47E-17C0-443A-B124-BB92C283FA5C}" name="Time Period" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4F90AA72-4D57-4598-91A6-CEDBD812E062}" name="Index" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{0FD36982-8D2D-4A6C-A265-44E4DEAF4C39}" name="Zone " dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{C8B7F081-F00B-44E8-A58A-88C8517B5B9B}" name="Importance Factor (I)" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{844F09EC-E667-4868-A2B3-5A7782E54F58}" name="Response Reduction Factor (R)" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{C621DA8D-3D31-4382-9CD1-F85D48D43619}" name="Design Acceleration Coefficient (Sag)" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{6D443A51-58F1-43BA-ABEC-2952D520D212}" name="Damping(%)" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{1DD6E231-EC2D-4F32-A266-419294054391}" name="Rock and Site Factor (S)" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{E689A47E-17C0-443A-B124-BB92C283FA5C}" name="Time Period" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1321,60 +1391,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19015D30-1634-434D-858F-B6EFD8D14CE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7091C747-A71E-42B7-AC2F-E725C67E196F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="15">
+        <v>4</v>
+      </c>
+      <c r="C2" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="B3" s="18">
+        <v>6</v>
+      </c>
+      <c r="C3" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="C4" s="22">
         <v>12</v>
       </c>
     </row>
@@ -1391,60 +1462,60 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="132" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="4">
         <v>0.16</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="4">
         <v>1.5</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="16">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1460,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31CF26C-8AC1-43F6-AACF-E6D25FCD3438}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,49 +1541,1213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B46F5F-2B1C-4F7C-BA35-45FEAB33DA2B}">
+  <dimension ref="A1:R34"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="E2" s="21">
-        <v>0</v>
-      </c>
-      <c r="F2" s="21">
-        <v>0</v>
-      </c>
-      <c r="G2" s="21">
-        <v>0</v>
+      <c r="D2">
+        <f>0.3*0.5</f>
+        <v>0.15</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>C2*D2*E2*25</f>
+        <v>281.25</v>
+      </c>
+      <c r="H2">
+        <f>C2*D2*E2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>G2/2</f>
+        <v>140.625</v>
+      </c>
+      <c r="K2">
+        <f>J2+J10+J18+J26</f>
+        <v>140.625</v>
+      </c>
+      <c r="L2">
+        <f>H2+H10+H18+H26</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>G2+G10+G18+G26</f>
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <f>0.3*0.5</f>
+        <v>0.15</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">C3*D3*E3*25</f>
+        <v>281.25</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H8" si="1">C3*D3*E3*F3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>(G2/2)+(G3/2)</f>
+        <v>281.25</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="2">J3+J11+J19+J27</f>
+        <v>1166.25</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="3">H3+H11+H19+H27</f>
+        <v>3000</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O7" si="4">G3+G11+G19+G27</f>
+        <v>1166.25</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q8" si="5">H3+H11+H19+H27</f>
+        <v>3000</v>
+      </c>
+      <c r="R3">
+        <f>15*25*0.15*2.5</f>
+        <v>140.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D8" si="6">0.3*0.5</f>
+        <v>0.15</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>281.25</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J5" si="7">(G3/2)+(G4/2)</f>
+        <v>281.25</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>1166.25</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>1166.25</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="7"/>
+        <v>253.125</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>1138.125</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>168.74999999999997</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>(G5/2)+(G6/2)</f>
+        <v>196.875</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>871.875</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>2280</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>843.75</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>112.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>(G6/2)+(G7/2)</f>
+        <v>140.625</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>605.625</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>1560</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>577.5</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>(G7/2)+(G8/2)</f>
+        <v>56.25</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>311.25</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+      <c r="O8">
+        <f>G8+G16+G24+G32</f>
+        <v>255</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f>SUM(K2:K8)</f>
+        <v>5400</v>
+      </c>
+      <c r="O9">
+        <f>SUM(O2:O8)</f>
+        <v>5400</v>
+      </c>
+      <c r="Q9">
+        <f>SUM(Q3:Q8)</f>
+        <v>13680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D16" si="8">0.3*0.5</f>
+        <v>0.15</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <f>C10*D10*E10*25</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>C10*E10*F10</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G16" si="9">C11*D11*E11*25</f>
+        <v>179.99999999999997</v>
+      </c>
+      <c r="H11">
+        <f>C11*E11*F11</f>
+        <v>480</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J16" si="10">G11</f>
+        <v>179.99999999999997</v>
+      </c>
+      <c r="K11">
+        <f>J11+J19</f>
+        <v>405</v>
+      </c>
+      <c r="L11">
+        <f>H11+H19</f>
+        <v>1080</v>
+      </c>
+      <c r="Q11">
+        <f>Q9+O9</f>
+        <v>19080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="9"/>
+        <v>179.99999999999997</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H16" si="11">C12*E12*F12</f>
+        <v>480</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="10"/>
+        <v>179.99999999999997</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:K16" si="12">J12+J20</f>
+        <v>405</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L16" si="13">H12+H20</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="9"/>
+        <v>179.99999999999997</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="11"/>
+        <v>480</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="10"/>
+        <v>179.99999999999997</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="12"/>
+        <v>405</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="13"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="9"/>
+        <v>135</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="11"/>
+        <v>360</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="12"/>
+        <v>315</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="13"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="9"/>
+        <v>89.999999999999986</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="11"/>
+        <v>240</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="10"/>
+        <v>89.999999999999986</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="12"/>
+        <v>225</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="13"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>44.999999999999993</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="10"/>
+        <v>44.999999999999993</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="12"/>
+        <v>134.99999999999997</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="13"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D24" si="14">0.3*0.5</f>
+        <v>0.15</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <f>C18*D18*E18*25</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>C18*E18*F18</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>G18</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="14"/>
+        <v>0.15</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G24" si="15">C19*D19*E19*25</f>
+        <v>225</v>
+      </c>
+      <c r="H19">
+        <f>C19*E19*F19</f>
+        <v>600</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J24" si="16">G19</f>
+        <v>225</v>
+      </c>
+      <c r="K19">
+        <v>480.00000000000006</v>
+      </c>
+      <c r="L19">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="14"/>
+        <v>0.15</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="15"/>
+        <v>225</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H24" si="17">C20*E20*F20</f>
+        <v>600</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+      <c r="K20">
+        <v>480.00000000000006</v>
+      </c>
+      <c r="L20">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="14"/>
+        <v>0.15</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="15"/>
+        <v>225</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="17"/>
+        <v>600</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+      <c r="K21">
+        <v>480.00000000000006</v>
+      </c>
+      <c r="L21">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="14"/>
+        <v>0.15</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="15"/>
+        <v>179.99999999999997</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="17"/>
+        <v>480</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="16"/>
+        <v>179.99999999999997</v>
+      </c>
+      <c r="K22">
+        <v>360</v>
+      </c>
+      <c r="L22">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="14"/>
+        <v>0.15</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="15"/>
+        <v>135</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="17"/>
+        <v>360</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="16"/>
+        <v>135</v>
+      </c>
+      <c r="K23">
+        <v>240.00000000000003</v>
+      </c>
+      <c r="L23">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="14"/>
+        <v>0.15</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="15"/>
+        <v>89.999999999999986</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="17"/>
+        <v>240</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="16"/>
+        <v>89.999999999999986</v>
+      </c>
+      <c r="K24">
+        <v>120.00000000000001</v>
+      </c>
+      <c r="L24">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>4*6</f>
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <f>C26*D26*E26*25</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>F26*D26*C26</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>G26</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>SUM(K2:K24)</f>
+        <v>14850</v>
+      </c>
+      <c r="L26">
+        <f>SUM(L11:L24)</f>
+        <v>13680</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <f>4*6</f>
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>0.1</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G32" si="18">C27*D27*E27*25</f>
+        <v>480.00000000000006</v>
+      </c>
+      <c r="H27">
+        <f>F27*D27*C27</f>
+        <v>1920</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27:J32" si="19">G27</f>
+        <v>480.00000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D32" si="20">4*6</f>
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>0.1</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="18"/>
+        <v>480.00000000000006</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H31" si="21">F28*D28*C28</f>
+        <v>1920</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="19"/>
+        <v>480.00000000000006</v>
+      </c>
+      <c r="K28">
+        <f>SUM(K18:K24)</f>
+        <v>2160.0000000000005</v>
+      </c>
+      <c r="L28">
+        <f>K26+L26</f>
+        <v>28530</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="18"/>
+        <v>480.00000000000006</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="21"/>
+        <v>1920</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="19"/>
+        <v>480.00000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>0.1</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="18"/>
+        <v>360</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="21"/>
+        <v>1440</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="19"/>
+        <v>360</v>
+      </c>
+      <c r="K30">
+        <f>K26-K28</f>
+        <v>12690</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>0.1</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="18"/>
+        <v>240.00000000000003</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="21"/>
+        <v>960</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="19"/>
+        <v>240.00000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>0.1</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="18"/>
+        <v>120.00000000000001</v>
+      </c>
+      <c r="H32">
+        <f>F32*D32*C32</f>
+        <v>480</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="19"/>
+        <v>120.00000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f>SUM(G3:G32)</f>
+        <v>5118.75</v>
+      </c>
+      <c r="H34">
+        <f>SUM(H3:H32)</f>
+        <v>13680</v>
+      </c>
+      <c r="J34">
+        <f>SUM(G34:H34)</f>
+        <v>18798.75</v>
       </c>
     </row>
   </sheetData>

--- a/InputFiles/Example1.xlsx
+++ b/InputFiles/Example1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482E1536-9AF7-41C5-B958-CECE0E89E146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BD61A5-706F-4D92-8479-B56B975A49DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" activeTab="2" xr2:uid="{138F3D20-9DB7-4AF8-94FC-BC1433BA6811}"/>
   </bookViews>
@@ -503,185 +503,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1055,6 +876,185 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1069,27 +1069,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9F9A67A6-2F68-4654-BD2F-84A85E3D849E}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9F9A67A6-2F68-4654-BD2F-84A85E3D849E}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DFE8C31F-7BC7-44CD-B3E8-3BAF65E36A8A}" name="Index" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{BEF29E33-CB76-4391-8549-6039CF6B9313}" name="No. of Bay" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{FF82F406-494B-400C-A2C3-5D23F633A556}" name="Total Distance (m)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DFE8C31F-7BC7-44CD-B3E8-3BAF65E36A8A}" name="Index" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{BEF29E33-CB76-4391-8549-6039CF6B9313}" name="No. of Bay" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{FF82F406-494B-400C-A2C3-5D23F633A556}" name="Total Distance (m)" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{06488673-014C-40AA-982B-FD4F0015DAB8}" name="Table7" displayName="Table7" ref="A1:H2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{06488673-014C-40AA-982B-FD4F0015DAB8}" name="Table7" displayName="Table7" ref="A1:H2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4F90AA72-4D57-4598-91A6-CEDBD812E062}" name="Index" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{0FD36982-8D2D-4A6C-A265-44E4DEAF4C39}" name="Zone " dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{C8B7F081-F00B-44E8-A58A-88C8517B5B9B}" name="Importance Factor (I)" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{844F09EC-E667-4868-A2B3-5A7782E54F58}" name="Response Reduction Factor (R)" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{C621DA8D-3D31-4382-9CD1-F85D48D43619}" name="Design Acceleration Coefficient (Sag)" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{6D443A51-58F1-43BA-ABEC-2952D520D212}" name="Damping(%)" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{1DD6E231-EC2D-4F32-A266-419294054391}" name="Rock and Site Factor (S)" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{E689A47E-17C0-443A-B124-BB92C283FA5C}" name="Time Period" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{4F90AA72-4D57-4598-91A6-CEDBD812E062}" name="Index" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0FD36982-8D2D-4A6C-A265-44E4DEAF4C39}" name="Zone " dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C8B7F081-F00B-44E8-A58A-88C8517B5B9B}" name="Importance Factor (I)" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{844F09EC-E667-4868-A2B3-5A7782E54F58}" name="Response Reduction Factor (R)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C621DA8D-3D31-4382-9CD1-F85D48D43619}" name="Design Acceleration Coefficient (Sag)" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6D443A51-58F1-43BA-ABEC-2952D520D212}" name="Damping(%)" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{1DD6E231-EC2D-4F32-A266-419294054391}" name="Rock and Site Factor (S)" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{E689A47E-17C0-443A-B124-BB92C283FA5C}" name="Time Period" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31CF26C-8AC1-43F6-AACF-E6D25FCD3438}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,13 +1568,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C2" s="9">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="D2" s="9">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>

--- a/InputFiles/Example1.xlsx
+++ b/InputFiles/Example1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BD61A5-706F-4D92-8479-B56B975A49DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9305FDE1-9CB5-4CAC-A29D-13CD351B5F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" activeTab="2" xr2:uid="{138F3D20-9DB7-4AF8-94FC-BC1433BA6811}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="framegen" sheetId="6" r:id="rId1"/>
     <sheet name="Seismic_Defination" sheetId="2" r:id="rId2"/>
     <sheet name="load_combinations" sheetId="3" r:id="rId3"/>
-    <sheet name="Manual Calculation" sheetId="5" r:id="rId4"/>
+    <sheet name="load_combinations2" sheetId="7" r:id="rId4"/>
+    <sheet name="Manual Calculation" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>Index</t>
   </si>
@@ -1532,7 +1533,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,13 +1569,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="C2" s="9">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D2" s="9">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
@@ -1592,6 +1593,75 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E680D36C-8F44-4116-B227-07A3A174EE4F}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B46F5F-2B1C-4F7C-BA35-45FEAB33DA2B}">
   <dimension ref="A1:R34"/>
   <sheetViews>

--- a/InputFiles/Example1.xlsx
+++ b/InputFiles/Example1.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9305FDE1-9CB5-4CAC-A29D-13CD351B5F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2535147-AC5A-4BFC-9C89-97975228C0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" activeTab="2" xr2:uid="{138F3D20-9DB7-4AF8-94FC-BC1433BA6811}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" activeTab="3" xr2:uid="{138F3D20-9DB7-4AF8-94FC-BC1433BA6811}"/>
   </bookViews>
   <sheets>
     <sheet name="framegen" sheetId="6" r:id="rId1"/>
     <sheet name="Seismic_Defination" sheetId="2" r:id="rId2"/>
     <sheet name="load_combinations" sheetId="3" r:id="rId3"/>
-    <sheet name="load_combinations2" sheetId="7" r:id="rId4"/>
-    <sheet name="Manual Calculation" sheetId="5" r:id="rId5"/>
+    <sheet name="Manual Calculation" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Index</t>
   </si>
@@ -1463,7 +1462,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31CF26C-8AC1-43F6-AACF-E6D25FCD3438}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,13 +1568,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C2" s="9">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D2" s="9">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
@@ -1593,80 +1592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E680D36C-8F44-4116-B227-07A3A174EE4F}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B46F5F-2B1C-4F7C-BA35-45FEAB33DA2B}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,8 +1655,8 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <f>0.3*0.5</f>
-        <v>0.15</v>
+        <f>0.4*0.4</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -1736,7 +1666,7 @@
       </c>
       <c r="G2">
         <f>C2*D2*E2*25</f>
-        <v>281.25</v>
+        <v>300.00000000000006</v>
       </c>
       <c r="H2">
         <f>C2*D2*E2*F2</f>
@@ -1744,11 +1674,11 @@
       </c>
       <c r="J2">
         <f>G2/2</f>
-        <v>140.625</v>
+        <v>150.00000000000003</v>
       </c>
       <c r="K2">
         <f>J2+J10+J18+J26</f>
-        <v>140.625</v>
+        <v>150.00000000000003</v>
       </c>
       <c r="L2">
         <f>H2+H10+H18+H26</f>
@@ -1756,7 +1686,7 @@
       </c>
       <c r="O2">
         <f>G2+G10+G18+G26</f>
-        <v>281.25</v>
+        <v>300.00000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1767,8 +1697,8 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <f>0.3*0.5</f>
-        <v>0.15</v>
+        <f t="shared" ref="D3:D8" si="0">0.4*0.4</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1777,31 +1707,31 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G8" si="0">C3*D3*E3*25</f>
-        <v>281.25</v>
+        <f t="shared" ref="G3:G8" si="1">C3*D3*E3*25</f>
+        <v>300.00000000000006</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H8" si="1">C3*D3*E3*F3</f>
+        <f t="shared" ref="H3:H8" si="2">C3*D3*E3*F3</f>
         <v>0</v>
       </c>
       <c r="J3">
         <f>(G2/2)+(G3/2)</f>
-        <v>281.25</v>
+        <v>300.00000000000006</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K8" si="2">J3+J11+J19+J27</f>
-        <v>1166.25</v>
+        <f t="shared" ref="K3:K8" si="3">J3+J11+J19+J27</f>
+        <v>1212.0000000000002</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L8" si="3">H3+H11+H19+H27</f>
+        <f t="shared" ref="L3:L8" si="4">H3+H11+H19+H27</f>
         <v>3000</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O7" si="4">G3+G11+G19+G27</f>
-        <v>1166.25</v>
+        <f t="shared" ref="O3:O7" si="5">G3+G11+G19+G27</f>
+        <v>1212.0000000000002</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q8" si="5">H3+H11+H19+H27</f>
+        <f t="shared" ref="Q3:Q8" si="6">H3+H11+H19+H27</f>
         <v>3000</v>
       </c>
       <c r="R3">
@@ -1817,8 +1747,8 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D8" si="6">0.3*0.5</f>
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1827,31 +1757,31 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>281.25</v>
+        <f t="shared" si="1"/>
+        <v>300.00000000000006</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J5" si="7">(G3/2)+(G4/2)</f>
-        <v>281.25</v>
+        <v>300.00000000000006</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
-        <v>1166.25</v>
+        <f t="shared" si="3"/>
+        <v>1212.0000000000002</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="O4">
-        <f t="shared" si="4"/>
-        <v>1166.25</v>
+        <f t="shared" si="5"/>
+        <v>1212.0000000000002</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
     </row>
@@ -1863,8 +1793,8 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1873,31 +1803,31 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>225</v>
+        <f t="shared" si="1"/>
+        <v>240.00000000000003</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" si="7"/>
-        <v>253.125</v>
+        <v>270.00000000000006</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
-        <v>1138.125</v>
+        <f t="shared" si="3"/>
+        <v>1182.0000000000002</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="O5">
-        <f t="shared" si="4"/>
-        <v>1110</v>
+        <f t="shared" si="5"/>
+        <v>1152.0000000000002</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
     </row>
@@ -1909,8 +1839,8 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1919,31 +1849,31 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>168.74999999999997</v>
+        <f t="shared" si="1"/>
+        <v>180.00000000000006</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6">
         <f>(G5/2)+(G6/2)</f>
-        <v>196.875</v>
+        <v>210.00000000000006</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
-        <v>871.875</v>
+        <f t="shared" si="3"/>
+        <v>906.00000000000011</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2280</v>
       </c>
       <c r="O6">
-        <f t="shared" si="4"/>
-        <v>843.75</v>
+        <f t="shared" si="5"/>
+        <v>876.00000000000011</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2280</v>
       </c>
     </row>
@@ -1955,8 +1885,8 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1965,31 +1895,31 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>112.5</v>
+        <f t="shared" si="1"/>
+        <v>120.00000000000001</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7">
         <f>(G6/2)+(G7/2)</f>
-        <v>140.625</v>
+        <v>150.00000000000003</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
-        <v>605.625</v>
+        <f t="shared" si="3"/>
+        <v>630.00000000000011</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1560</v>
       </c>
       <c r="O7">
-        <f t="shared" si="4"/>
-        <v>577.5</v>
+        <f t="shared" si="5"/>
+        <v>600.00000000000011</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1560</v>
       </c>
     </row>
@@ -2001,8 +1931,8 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2011,42 +1941,42 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8">
         <f>(G7/2)+(G8/2)</f>
-        <v>56.25</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
-        <v>311.25</v>
+        <f t="shared" si="3"/>
+        <v>324.00000000000006</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>840</v>
       </c>
       <c r="O8">
         <f>G8+G16+G24+G32</f>
-        <v>255</v>
+        <v>264.00000000000006</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K9">
         <f>SUM(K2:K8)</f>
-        <v>5400</v>
+        <v>5616.0000000000009</v>
       </c>
       <c r="O9">
         <f>SUM(O2:O8)</f>
-        <v>5400</v>
+        <v>5616.0000000000009</v>
       </c>
       <c r="Q9">
         <f>SUM(Q3:Q8)</f>
@@ -2064,8 +1994,8 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D16" si="8">0.3*0.5</f>
-        <v>0.15</v>
+        <f>0.4*0.4</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -2094,8 +2024,8 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <f t="shared" si="8"/>
-        <v>0.15</v>
+        <f t="shared" ref="D11:D16" si="8">0.4*0.4</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -2105,7 +2035,7 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G16" si="9">C11*D11*E11*25</f>
-        <v>179.99999999999997</v>
+        <v>192.00000000000003</v>
       </c>
       <c r="H11">
         <f>C11*E11*F11</f>
@@ -2113,11 +2043,11 @@
       </c>
       <c r="J11">
         <f t="shared" ref="J11:J16" si="10">G11</f>
-        <v>179.99999999999997</v>
+        <v>192.00000000000003</v>
       </c>
       <c r="K11">
         <f>J11+J19</f>
-        <v>405</v>
+        <v>432.00000000000006</v>
       </c>
       <c r="L11">
         <f>H11+H19</f>
@@ -2125,7 +2055,7 @@
       </c>
       <c r="Q11">
         <f>Q9+O9</f>
-        <v>19080</v>
+        <v>19296</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -2137,7 +2067,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="8"/>
-        <v>0.15</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -2147,7 +2077,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>179.99999999999997</v>
+        <v>192.00000000000003</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H16" si="11">C12*E12*F12</f>
@@ -2155,11 +2085,11 @@
       </c>
       <c r="J12">
         <f t="shared" si="10"/>
-        <v>179.99999999999997</v>
+        <v>192.00000000000003</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12:K16" si="12">J12+J20</f>
-        <v>405</v>
+        <v>432.00000000000006</v>
       </c>
       <c r="L12">
         <f t="shared" ref="L12:L16" si="13">H12+H20</f>
@@ -2175,7 +2105,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="8"/>
-        <v>0.15</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -2185,7 +2115,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>179.99999999999997</v>
+        <v>192.00000000000003</v>
       </c>
       <c r="H13">
         <f t="shared" si="11"/>
@@ -2193,11 +2123,11 @@
       </c>
       <c r="J13">
         <f t="shared" si="10"/>
-        <v>179.99999999999997</v>
+        <v>192.00000000000003</v>
       </c>
       <c r="K13">
         <f t="shared" si="12"/>
-        <v>405</v>
+        <v>432.00000000000006</v>
       </c>
       <c r="L13">
         <f t="shared" si="13"/>
@@ -2213,7 +2143,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="8"/>
-        <v>0.15</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -2223,7 +2153,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>135</v>
+        <v>144.00000000000003</v>
       </c>
       <c r="H14">
         <f t="shared" si="11"/>
@@ -2231,11 +2161,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="10"/>
-        <v>135</v>
+        <v>144.00000000000003</v>
       </c>
       <c r="K14">
         <f t="shared" si="12"/>
-        <v>315</v>
+        <v>336.00000000000006</v>
       </c>
       <c r="L14">
         <f t="shared" si="13"/>
@@ -2251,7 +2181,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="8"/>
-        <v>0.15</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -2261,7 +2191,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>89.999999999999986</v>
+        <v>96.000000000000014</v>
       </c>
       <c r="H15">
         <f t="shared" si="11"/>
@@ -2269,11 +2199,11 @@
       </c>
       <c r="J15">
         <f t="shared" si="10"/>
-        <v>89.999999999999986</v>
+        <v>96.000000000000014</v>
       </c>
       <c r="K15">
         <f t="shared" si="12"/>
-        <v>225</v>
+        <v>240.00000000000006</v>
       </c>
       <c r="L15">
         <f t="shared" si="13"/>
@@ -2289,7 +2219,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="8"/>
-        <v>0.15</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -2299,7 +2229,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>44.999999999999993</v>
+        <v>48.000000000000007</v>
       </c>
       <c r="H16">
         <f t="shared" si="11"/>
@@ -2307,11 +2237,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="10"/>
-        <v>44.999999999999993</v>
+        <v>48.000000000000007</v>
       </c>
       <c r="K16">
         <f t="shared" si="12"/>
-        <v>134.99999999999997</v>
+        <v>144.00000000000003</v>
       </c>
       <c r="L16">
         <f t="shared" si="13"/>
@@ -2329,8 +2259,8 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:D24" si="14">0.3*0.5</f>
-        <v>0.15</v>
+        <f>0.4*0.4</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -2365,8 +2295,8 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <f t="shared" si="14"/>
-        <v>0.15</v>
+        <f t="shared" ref="D19:D24" si="14">0.4*0.4</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -2376,7 +2306,7 @@
       </c>
       <c r="G19">
         <f t="shared" ref="G19:G24" si="15">C19*D19*E19*25</f>
-        <v>225</v>
+        <v>240.00000000000003</v>
       </c>
       <c r="H19">
         <f>C19*E19*F19</f>
@@ -2384,7 +2314,7 @@
       </c>
       <c r="J19">
         <f t="shared" ref="J19:J24" si="16">G19</f>
-        <v>225</v>
+        <v>240.00000000000003</v>
       </c>
       <c r="K19">
         <v>480.00000000000006</v>
@@ -2402,7 +2332,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="14"/>
-        <v>0.15</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -2412,7 +2342,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="15"/>
-        <v>225</v>
+        <v>240.00000000000003</v>
       </c>
       <c r="H20">
         <f t="shared" ref="H20:H24" si="17">C20*E20*F20</f>
@@ -2420,7 +2350,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="16"/>
-        <v>225</v>
+        <v>240.00000000000003</v>
       </c>
       <c r="K20">
         <v>480.00000000000006</v>
@@ -2438,7 +2368,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="14"/>
-        <v>0.15</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -2448,7 +2378,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="15"/>
-        <v>225</v>
+        <v>240.00000000000003</v>
       </c>
       <c r="H21">
         <f t="shared" si="17"/>
@@ -2456,7 +2386,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="16"/>
-        <v>225</v>
+        <v>240.00000000000003</v>
       </c>
       <c r="K21">
         <v>480.00000000000006</v>
@@ -2474,7 +2404,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="14"/>
-        <v>0.15</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -2484,7 +2414,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="15"/>
-        <v>179.99999999999997</v>
+        <v>192.00000000000003</v>
       </c>
       <c r="H22">
         <f t="shared" si="17"/>
@@ -2492,7 +2422,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="16"/>
-        <v>179.99999999999997</v>
+        <v>192.00000000000003</v>
       </c>
       <c r="K22">
         <v>360</v>
@@ -2510,7 +2440,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="14"/>
-        <v>0.15</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -2520,7 +2450,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="15"/>
-        <v>135</v>
+        <v>144.00000000000003</v>
       </c>
       <c r="H23">
         <f t="shared" si="17"/>
@@ -2528,7 +2458,7 @@
       </c>
       <c r="J23">
         <f t="shared" si="16"/>
-        <v>135</v>
+        <v>144.00000000000003</v>
       </c>
       <c r="K23">
         <v>240.00000000000003</v>
@@ -2546,7 +2476,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="14"/>
-        <v>0.15</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -2556,7 +2486,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="15"/>
-        <v>89.999999999999986</v>
+        <v>96.000000000000014</v>
       </c>
       <c r="H24">
         <f t="shared" si="17"/>
@@ -2564,7 +2494,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="16"/>
-        <v>89.999999999999986</v>
+        <v>96.000000000000014</v>
       </c>
       <c r="K24">
         <v>120.00000000000001</v>
@@ -2607,7 +2537,7 @@
       </c>
       <c r="K26">
         <f>SUM(K2:K24)</f>
-        <v>14850</v>
+        <v>15408.000000000002</v>
       </c>
       <c r="L26">
         <f>SUM(L11:L24)</f>
@@ -2679,7 +2609,7 @@
       </c>
       <c r="L28">
         <f>K26+L26</f>
-        <v>28530</v>
+        <v>29088</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2743,7 +2673,7 @@
       </c>
       <c r="K30">
         <f>K26-K28</f>
-        <v>12690</v>
+        <v>13248.000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2809,7 +2739,7 @@
     <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34">
         <f>SUM(G3:G32)</f>
-        <v>5118.75</v>
+        <v>5316.0000000000009</v>
       </c>
       <c r="H34">
         <f>SUM(H3:H32)</f>
@@ -2817,7 +2747,7 @@
       </c>
       <c r="J34">
         <f>SUM(G34:H34)</f>
-        <v>18798.75</v>
+        <v>18996</v>
       </c>
     </row>
   </sheetData>

--- a/InputFiles/Example1.xlsx
+++ b/InputFiles/Example1.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\strucpy\Examples\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Civil Lab\Desktop\tabish\Phd\Git_Repository\StrucPy\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F5D6F5-E22B-4A3E-9A01-22EA79A03AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93317D8-F808-460E-853C-1F7F71349160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="657" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="657" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="2" r:id="rId1"/>
     <sheet name="members" sheetId="1" r:id="rId2"/>
-    <sheet name="slab" sheetId="3" r:id="rId3"/>
-    <sheet name="forcevec" sheetId="4" r:id="rId4"/>
-    <sheet name="boundary" sheetId="5" r:id="rId5"/>
-    <sheet name="load_combinations" sheetId="6" r:id="rId6"/>
-    <sheet name="point_loads" sheetId="7" r:id="rId7"/>
+    <sheet name="boundary" sheetId="5" r:id="rId3"/>
+    <sheet name="point_loads" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Node 1</t>
   </si>
@@ -51,24 +48,6 @@
     <t>z</t>
   </si>
   <si>
-    <t>Fx</t>
-  </si>
-  <si>
-    <t>Fy</t>
-  </si>
-  <si>
-    <t>Fz</t>
-  </si>
-  <si>
-    <t>Mx</t>
-  </si>
-  <si>
-    <t>My</t>
-  </si>
-  <si>
-    <t>Mz</t>
-  </si>
-  <si>
     <t>thetax</t>
   </si>
   <si>
@@ -91,42 +70,6 @@
   </si>
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Dead_Load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Live_Load </t>
-  </si>
-  <si>
-    <t>Earthquake_Load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node1 </t>
-  </si>
-  <si>
-    <t>Node2</t>
-  </si>
-  <si>
-    <t>Node3</t>
-  </si>
-  <si>
-    <t>Node4</t>
-  </si>
-  <si>
-    <t>Thickness(mm)</t>
-  </si>
-  <si>
-    <t>FF(N/m2)</t>
-  </si>
-  <si>
-    <t>LL(N/m2)</t>
-  </si>
-  <si>
-    <t>Waterproofing(N/m2)</t>
   </si>
   <si>
     <t>un</t>
@@ -145,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -167,13 +110,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,10 +166,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,19 +558,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -674,94 +606,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -785,13 +629,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -799,22 +643,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -822,22 +666,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -845,264 +689,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AJ38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="M15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="N16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="R16" s="8"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="M19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="Q19" s="8"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="R20" s="8"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="S21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="X22" s="8"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="S25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="W25" s="8"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="X26" s="8"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Y27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Z28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AD28" s="8"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Y31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AC31" s="8"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AD32" s="8"/>
-    </row>
-    <row r="33" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AE33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-    </row>
-    <row r="34" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AF34" s="8"/>
-      <c r="AH34" s="8"/>
-      <c r="AJ34" s="8"/>
-    </row>
-    <row r="35" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-    </row>
-    <row r="36" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-    </row>
-    <row r="37" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AE37" s="8"/>
-      <c r="AG37" s="8"/>
-      <c r="AI37" s="8"/>
-    </row>
-    <row r="38" spans="31:36" x14ac:dyDescent="0.25">
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
-      <c r="AJ38" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,20 +708,20 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
